--- a/MultiGroupBeamforming/B.xlsx
+++ b/MultiGroupBeamforming/B.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8175" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="FullyDigi" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="26">
   <si>
     <t>nTransmit</t>
   </si>
@@ -110,15 +110,6 @@
   </si>
   <si>
     <t>shuffle</t>
-  </si>
-  <si>
-    <t>[2,2,2,2]</t>
-  </si>
-  <si>
-    <t>[8:4:16]</t>
-  </si>
-  <si>
-    <t>[20:4:32]</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1181,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2174,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2194,6 +2185,9 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -2203,10 +2197,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="D3" s="1">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2217,6 +2214,9 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2230,7 +2230,9 @@
       <c r="C5" s="8">
         <v>300000000</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <v>300000000</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -2242,6 +2244,9 @@
       <c r="C7" s="1">
         <v>20</v>
       </c>
+      <c r="D7" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -2253,6 +2258,9 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -2262,6 +2270,9 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2281,6 +2292,9 @@
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2292,17 +2306,22 @@
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,13 +2329,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2324,6 +2346,9 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
     </row>
